--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>831_多丁粉星太子_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09858202014180</v>
+        <v>098582020141810</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>628_多丁白星太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>626_多丁莫言_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <v>797_大菊黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>798_大菊粉_undefined_undefined_5stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>860_大菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>4</v>
+      </c>
+      <c r="C19" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>098582020141810</v>
+        <v>098582020141810101010101515510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>656_大丽花 梅根_undefined_undefined_5stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>098582020141810101010101515510100</v>
+        <v>098582020141810101010101515510105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,9 +613,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>5</v>
+      </c>
+      <c r="C23" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>6</v>
+      </c>
+      <c r="C30" t="str">
+        <v>554_伊朗红柳（进口）_iran red willow_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>098582020141810101010101515510105</v>
+        <v>09858202014181010101010151551010571010210101010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09858202014181010101010151551010571010210101010150</v>
+        <v>098582020141810101010101515510105710102101010101510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F34" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F35" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>323_木绣球_Green snowball viburnum_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">499_小飞燕浅蓝_delphinium ballkleid
+light blue_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>098582020141810101010101515510105710102101010101510</v>
+        <v>098582020141810101010101515510105710102101010101510152030401015510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -773,10 +773,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" xml:space="preserve">
-      <c r="C41" t="str" xml:space="preserve">
-        <v xml:space="preserve">499_小飞燕浅蓝_delphinium ballkleid
-light blue_undefined_1bunch</v>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -773,9 +773,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+    <row r="41" xml:space="preserve">
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -778,6 +778,9 @@
         <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
 dark blue_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -839,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>098582020141810101010101515510105710102101010101510152030401015510100</v>
+        <v>098582020141810101010101515510105710102101010101510152030401015510101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,12 +779,98 @@
 dark blue_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>483_圣诞花_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>7</v>
+      </c>
+      <c r="C43" t="str">
+        <v>859_喷色小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>8</v>
+      </c>
+      <c r="C44" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>394_矢车菊_Cornflower_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>9</v>
+      </c>
+      <c r="C47" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>752_蝴蝶洋牡丹橙_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -842,7 +928,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>098582020141810101010101515510105710102101010101510152030401015510101</v>
+        <v>098582020141810101010101515510105710102101010101510152030401015510101510515204201010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -867,6 +867,9 @@
       <c r="C51" t="str">
         <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -928,7 +931,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>098582020141810101010101515510105710102101010101510152030401015510101510515204201010100</v>
+        <v>0985820201418101010101015155101057101021010101015101520304010155101015105152042010101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -871,9 +871,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>10</v>
+      </c>
+      <c r="C54" t="str">
+        <v>528_五代果_pig face_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L54"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -931,7 +958,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0985820201418101010101015155101057101021010101015101520304010155101015105152042010101010</v>
+        <v>098582020141810101010101515510105710102101010101510152030401015510101510515204201010101010105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-5.xlsx
@@ -960,6 +960,9 @@
       <c r="G2" t="str">
         <v>098582020141810101010101515510105710102101010101510152030401015510101510515204201010101010105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
